--- a/data/4dsw_linked_references.xlsx
+++ b/data/4dsw_linked_references.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoregon-my.sharepoint.com/personal/strevino_uoregon_edu/Documents/Desktop/HEDCO Institute/GitHub R Projects/4DSW_Scoping_Review/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F9BC77-F8B0-41C9-8717-2B344DC8D9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="48" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>RefID</t>
   </si>
@@ -52,24 +47,24 @@
     <t>Juvenile crime and the four-day school week</t>
   </si>
   <si>
+    <t>Fischer, Stefanie Jane</t>
+  </si>
+  <si>
+    <t>Essays on Human and Social Capital Accumulation</t>
+  </si>
+  <si>
+    <t>Same study</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Argyle, Daniel Wecker</t>
   </si>
   <si>
     <t>Essays on Social Influences in Economic Decision Making</t>
   </si>
   <si>
-    <t>Same study</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Fischer, Stefanie Jane</t>
-  </si>
-  <si>
-    <t>Essays on Human and Social Capital Accumulation</t>
-  </si>
-  <si>
     <t>Tomayko, Emily J., Gunter, Katherine B., Schuna, John M., Thompson, Paul N.</t>
   </si>
   <si>
@@ -133,21 +128,21 @@
     <t>Same Study (ref 64)</t>
   </si>
   <si>
+    <t>Richburg, Robert W., Edelen, Robert W.</t>
+  </si>
+  <si>
+    <t>An Evaluation of the Four-Day School Week in Colorado. The Final Report</t>
+  </si>
+  <si>
+    <t>Rural Education: A New Awareness. Proceedings of the Multi-State and Rural and Small School Conference (Tifton, Georgia, November 15-16, 1982)</t>
+  </si>
+  <si>
     <t>Brubacher, Roy G., Stiverson, C. L.</t>
   </si>
   <si>
     <t>Colorado's Alternative School Calendar Program and the Four Day Week</t>
   </si>
   <si>
-    <t>Rural Education: A New Awareness. Proceedings of the Multi-State and Rural and Small School Conference (Tifton, Georgia, November 15-16, 1982)</t>
-  </si>
-  <si>
-    <t>Richburg, Robert W., Edelen, Robert W.</t>
-  </si>
-  <si>
-    <t>An Evaluation of the Four-Day School Week in Colorado. The Final Report</t>
-  </si>
-  <si>
     <t>Nowak, Adam, Perrone, Frank, Smith, Patrick S.</t>
   </si>
   <si>
@@ -163,22 +158,19 @@
     <t>Same study (4059 is updated pre-print)</t>
   </si>
   <si>
-    <t>Same Study 77 screened already</t>
-  </si>
-  <si>
     <t>Morton, Emily</t>
   </si>
   <si>
     <t>Effects of Four-Day School Weeks on School Finance and Achievement: Evidence From Oklahoma</t>
   </si>
   <si>
+    <t>Can four equal five? Essays on the four-day school week.</t>
+  </si>
+  <si>
+    <t>No Reason Supplied!</t>
+  </si>
+  <si>
     <t>Effects of Four-Day School Weeks on School Finance and Achievement: Evidence from Oklahoma. CEPA Working Paper No. 20-02</t>
-  </si>
-  <si>
-    <t>Can four equal five? Essays on the four-day school week.</t>
-  </si>
-  <si>
-    <t>No Reason Supplied!</t>
   </si>
   <si>
     <t>Morton, E, Thompson, P, Kuhfeld, M</t>
@@ -313,9 +305,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -342,21 +339,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -646,14 +635,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>10</v>
       </c>
@@ -690,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>568</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -705,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>10</v>
       </c>
@@ -716,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>151</v>
+        <v>568</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -731,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>48</v>
       </c>
@@ -744,6 +738,7 @@
       <c r="D4">
         <v>3092</v>
       </c>
+      <c r="E4"/>
       <c r="F4" t="s">
         <v>18</v>
       </c>
@@ -754,7 +749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>54</v>
       </c>
@@ -780,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>54</v>
       </c>
@@ -806,7 +801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>57</v>
       </c>
@@ -832,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>64</v>
       </c>
@@ -858,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>64</v>
       </c>
@@ -869,7 +864,7 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>1058</v>
+        <v>1067</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -878,13 +873,13 @@
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>64</v>
       </c>
@@ -897,6 +892,7 @@
       <c r="D10">
         <v>1034</v>
       </c>
+      <c r="E10"/>
       <c r="F10" t="s">
         <v>39</v>
       </c>
@@ -907,7 +903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>64</v>
       </c>
@@ -918,7 +914,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -927,13 +923,13 @@
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>77</v>
       </c>
@@ -959,50 +955,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>4154</v>
+        <v>4570</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>80</v>
       </c>
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
       </c>
       <c r="D14">
         <v>355</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -1011,356 +1007,354 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>4098</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>4570</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="D15">
-        <v>4570</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16">
-        <v>4098</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="D17">
-        <v>4570</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>95</v>
+        <v>4099</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>93</v>
       </c>
       <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
       <c r="D20">
-        <v>4099</v>
+        <v>261</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>93</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
       <c r="D21">
-        <v>261</v>
+        <v>4570</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>93</v>
       </c>
       <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
       <c r="D22">
-        <v>4570</v>
+        <v>257</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D23">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24">
-        <v>214</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B24"/>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="E24"/>
       <c r="F24" t="s">
         <v>74</v>
       </c>
       <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>374</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>375</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>383</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>2940</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27">
+        <v>2939</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
         <v>12</v>
       </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>224</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25">
-        <v>369</v>
-      </c>
-      <c r="F25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>374</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26">
-        <v>375</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>383</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" t="s">
-        <v>85</v>
-      </c>
       <c r="H27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28">
-        <v>2940</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
+        <v>3074</v>
+      </c>
+      <c r="B28"/>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28">
-        <v>2939</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
+        <v>3075</v>
+      </c>
+      <c r="E28"/>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -1369,53 +1363,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29">
-        <v>3074</v>
+        <v>4150</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29">
-        <v>3075</v>
+        <v>4544</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>4150</v>
-      </c>
-      <c r="B30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30">
-        <v>4544</v>
-      </c>
-      <c r="E30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>